--- a/Dhis2GenderToAdministrativeGender.xlsx
+++ b/Dhis2GenderToAdministrativeGender.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T19:57:38+00:00</t>
+    <t>2024-12-03T20:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Dhis2GenderToAdministrativeGender.xlsx
+++ b/Dhis2GenderToAdministrativeGender.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T20:00:22+00:00</t>
+    <t>2024-12-03T20:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Dhis2GenderToAdministrativeGender.xlsx
+++ b/Dhis2GenderToAdministrativeGender.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T20:03:30+00:00</t>
+    <t>2024-12-04T08:45:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Dhis2GenderToAdministrativeGender.xlsx
+++ b/Dhis2GenderToAdministrativeGender.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T08:45:25+00:00</t>
+    <t>2024-12-04T08:53:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Dhis2GenderToAdministrativeGender.xlsx
+++ b/Dhis2GenderToAdministrativeGender.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T08:53:32+00:00</t>
+    <t>2024-12-04T08:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
